--- a/code/results/storm_j10_7200/compact_reformulation_trans_results_j10.xlsx
+++ b/code/results/storm_j10_7200/compact_reformulation_trans_results_j10.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2192" uniqueCount="548">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="552">
   <si>
     <t xml:space="preserve">instance</t>
   </si>
@@ -1633,6 +1633,12 @@
     <t xml:space="preserve">j1064_4</t>
   </si>
   <si>
+    <t xml:space="preserve">percent solved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg. percent solved</t>
+  </si>
+  <si>
     <t xml:space="preserve">j1064_5</t>
   </si>
   <si>
@@ -1645,6 +1651,9 @@
     <t xml:space="preserve">avg. gap</t>
   </si>
   <si>
+    <t xml:space="preserve">avg. avg gap</t>
+  </si>
+  <si>
     <t xml:space="preserve">j1064_7</t>
   </si>
   <si>
@@ -1655,6 +1664,9 @@
   </si>
   <si>
     <t xml:space="preserve">avg. solve time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg avg solve time</t>
   </si>
   <si>
     <t xml:space="preserve">j1064_9</t>
@@ -1676,11 +1688,12 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1696,12 +1709,6 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1751,7 +1758,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1772,10 +1779,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I537"/>
+  <dimension ref="A1:L537"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A520" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="N536" activeCellId="0" sqref="N536"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F520" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M553" activeCellId="0" sqref="M553"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12408,10 +12415,24 @@
       <c r="F531" s="0" t="n">
         <v>0.034</v>
       </c>
+      <c r="H531" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="I531" s="0" t="n">
+        <f aca="false">100*COUNTIF(E2:E537,0)/ROWS(E2:E537)</f>
+        <v>100</v>
+      </c>
+      <c r="K531" s="0" t="s">
+        <v>537</v>
+      </c>
+      <c r="L531" s="0" t="n">
+        <f aca="false">AVERAGE(compact_reformulation_trans_results_0:compact_reformulation_trans_results_7!I531:I531)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B532" s="0" t="n">
         <v>0</v>
@@ -12429,7 +12450,7 @@
         <v>0.138</v>
       </c>
       <c r="H532" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I532" s="1" t="n">
         <f aca="false">COUNTIF(E2:E537,0)</f>
@@ -12438,7 +12459,7 @@
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B533" s="0" t="n">
         <v>0</v>
@@ -12456,16 +12477,23 @@
         <v>0.074</v>
       </c>
       <c r="H533" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="I533" s="1" t="n">
         <f aca="false">AVERAGEIF(E2:E537,"&lt;&gt;*nan")</f>
         <v>0</v>
       </c>
+      <c r="K533" s="0" t="s">
+        <v>542</v>
+      </c>
+      <c r="L533" s="0" t="n">
+        <f aca="false">AVERAGE(compact_reformulation_trans_results_0:compact_reformulation_trans_results_7!I533:I533)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B534" s="0" t="n">
         <v>0</v>
@@ -12483,7 +12511,7 @@
         <v>0.072</v>
       </c>
       <c r="H534" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I534" s="1" t="e">
         <f aca="false">AVERAGEIFS(E2:E537,E2:E537,"&lt;&gt;*nan",E2:E537,"&lt;&gt;0")</f>
@@ -12492,7 +12520,7 @@
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B535" s="0" t="n">
         <v>0</v>
@@ -12510,16 +12538,23 @@
         <v>0.081</v>
       </c>
       <c r="H535" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I535" s="1" t="n">
         <f aca="false">AVERAGE(F2:F537)</f>
         <v>1.83836567164179</v>
       </c>
+      <c r="K535" s="0" t="s">
+        <v>547</v>
+      </c>
+      <c r="L535" s="0" t="n">
+        <f aca="false">AVERAGE(compact_reformulation_trans_results_0:compact_reformulation_trans_results_7!I535:I535)</f>
+        <v>4.47083815298508</v>
+      </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>0</v>
@@ -12537,7 +12572,7 @@
         <v>0.125</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="I536" s="1" t="n">
         <f aca="false">AVERAGEIF(F2:F537,"&lt;7200")</f>
@@ -12546,7 +12581,7 @@
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>0</v>
@@ -12564,7 +12599,7 @@
         <v>0.059</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="I537" s="1" t="n">
         <f aca="false">AVERAGEIF(E2:E537,"=0",C2:C537)</f>
@@ -12590,7 +12625,7 @@
   <dimension ref="A1:I537"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A519" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H532" activeCellId="0" sqref="H532"/>
+      <selection pane="topLeft" activeCell="H531" activeCellId="0" sqref="H531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23223,10 +23258,17 @@
       <c r="F531" s="0" t="n">
         <v>0.188</v>
       </c>
+      <c r="H531" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="I531" s="0" t="n">
+        <f aca="false">100*COUNTIF(E2:E537,0)/ROWS(E2:E537)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B532" s="0" t="n">
         <v>3</v>
@@ -23244,7 +23286,7 @@
         <v>0.659</v>
       </c>
       <c r="H532" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I532" s="1" t="n">
         <f aca="false">COUNTIF(E2:E537,0)</f>
@@ -23253,7 +23295,7 @@
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B533" s="0" t="n">
         <v>3</v>
@@ -23271,7 +23313,7 @@
         <v>0.742</v>
       </c>
       <c r="H533" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="I533" s="1" t="n">
         <f aca="false">AVERAGEIF(E2:E537,"&lt;&gt;*nan")</f>
@@ -23280,7 +23322,7 @@
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B534" s="0" t="n">
         <v>3</v>
@@ -23298,7 +23340,7 @@
         <v>0.293</v>
       </c>
       <c r="H534" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I534" s="1" t="e">
         <f aca="false">AVERAGEIFS(E2:E537,E2:E537,"&lt;&gt;*nan",E2:E537,"&lt;&gt;0")</f>
@@ -23307,7 +23349,7 @@
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B535" s="0" t="n">
         <v>3</v>
@@ -23325,7 +23367,7 @@
         <v>0.251</v>
       </c>
       <c r="H535" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I535" s="1" t="n">
         <f aca="false">AVERAGE(F2:F537)</f>
@@ -23334,7 +23376,7 @@
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>3</v>
@@ -23352,7 +23394,7 @@
         <v>0.33</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="I536" s="1" t="n">
         <f aca="false">AVERAGEIF(F2:F537,"&lt;7200")</f>
@@ -23361,7 +23403,7 @@
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>3</v>
@@ -23379,7 +23421,7 @@
         <v>0.439</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="I537" s="1" t="n">
         <f aca="false">AVERAGEIF(E2:E537,"=0",C2:C537)</f>
@@ -23389,7 +23431,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -23405,7 +23447,7 @@
   <dimension ref="A1:I537"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A507" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H532" activeCellId="0" sqref="H532"/>
+      <selection pane="topLeft" activeCell="H531" activeCellId="0" sqref="H531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34038,10 +34080,17 @@
       <c r="F531" s="0" t="n">
         <v>0.131</v>
       </c>
+      <c r="H531" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="I531" s="0" t="n">
+        <f aca="false">100*COUNTIF(E2:E537,0)/ROWS(E2:E537)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B532" s="0" t="n">
         <v>5</v>
@@ -34059,7 +34108,7 @@
         <v>0.673</v>
       </c>
       <c r="H532" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I532" s="1" t="n">
         <f aca="false">COUNTIF(E2:E537,0)</f>
@@ -34068,7 +34117,7 @@
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B533" s="0" t="n">
         <v>5</v>
@@ -34086,7 +34135,7 @@
         <v>0.586</v>
       </c>
       <c r="H533" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="I533" s="1" t="n">
         <f aca="false">AVERAGEIF(E2:E537,"&lt;&gt;*nan")</f>
@@ -34095,7 +34144,7 @@
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B534" s="0" t="n">
         <v>5</v>
@@ -34113,7 +34162,7 @@
         <v>0.437</v>
       </c>
       <c r="H534" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I534" s="1" t="e">
         <f aca="false">AVERAGEIFS(E2:E537,E2:E537,"&lt;&gt;*nan",E2:E537,"&lt;&gt;0")</f>
@@ -34122,7 +34171,7 @@
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B535" s="0" t="n">
         <v>5</v>
@@ -34140,7 +34189,7 @@
         <v>0.281</v>
       </c>
       <c r="H535" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I535" s="1" t="n">
         <f aca="false">AVERAGE(F2:F537)</f>
@@ -34149,7 +34198,7 @@
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>5</v>
@@ -34167,7 +34216,7 @@
         <v>0.681</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="I536" s="1" t="n">
         <f aca="false">AVERAGEIF(F2:F537,"&lt;7200")</f>
@@ -34176,7 +34225,7 @@
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>5</v>
@@ -34194,7 +34243,7 @@
         <v>1.464</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="I537" s="1" t="n">
         <f aca="false">AVERAGEIF(E2:E537,"=0",C2:C537)</f>
@@ -34204,7 +34253,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
@@ -34220,7 +34269,7 @@
   <dimension ref="A1:I537"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A521" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H532" activeCellId="0" sqref="H532"/>
+      <selection pane="topLeft" activeCell="I531" activeCellId="0" sqref="I531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -44853,10 +44902,17 @@
       <c r="F531" s="0" t="n">
         <v>0.202</v>
       </c>
+      <c r="H531" s="0" t="s">
+        <v>536</v>
+      </c>
+      <c r="I531" s="0" t="n">
+        <f aca="false">100*COUNTIF(E2:E537,0)/ROWS(E2:E537)</f>
+        <v>100</v>
+      </c>
     </row>
     <row r="532" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A532" s="0" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="B532" s="0" t="n">
         <v>7</v>
@@ -44874,7 +44930,7 @@
         <v>0.841</v>
       </c>
       <c r="H532" s="1" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="I532" s="1" t="n">
         <f aca="false">COUNTIF(E2:E537,0)</f>
@@ -44883,7 +44939,7 @@
     </row>
     <row r="533" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A533" s="0" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="B533" s="0" t="n">
         <v>7</v>
@@ -44901,7 +44957,7 @@
         <v>0.971</v>
       </c>
       <c r="H533" s="1" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="I533" s="1" t="n">
         <f aca="false">AVERAGEIF(E2:E537,"&lt;&gt;*nan")</f>
@@ -44910,7 +44966,7 @@
     </row>
     <row r="534" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A534" s="0" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="B534" s="0" t="n">
         <v>7</v>
@@ -44928,7 +44984,7 @@
         <v>0.888</v>
       </c>
       <c r="H534" s="1" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="I534" s="1" t="e">
         <f aca="false">AVERAGEIFS(E2:E537,E2:E537,"&lt;&gt;*nan",E2:E537,"&lt;&gt;0")</f>
@@ -44937,7 +44993,7 @@
     </row>
     <row r="535" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A535" s="0" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="B535" s="0" t="n">
         <v>7</v>
@@ -44955,7 +45011,7 @@
         <v>0.525</v>
       </c>
       <c r="H535" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="I535" s="1" t="n">
         <f aca="false">AVERAGE(F2:F537)</f>
@@ -44964,7 +45020,7 @@
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>7</v>
@@ -44982,7 +45038,7 @@
         <v>0.546</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="I536" s="1" t="n">
         <f aca="false">AVERAGEIF(F2:F537,"&lt;7200")</f>
@@ -44991,7 +45047,7 @@
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>7</v>
@@ -45009,7 +45065,7 @@
         <v>0.408</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="I537" s="1" t="n">
         <f aca="false">AVERAGEIF(E2:E537,"=0",C2:C537)</f>
@@ -45019,7 +45075,7 @@
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>

--- a/code/results/storm_j10_7200/compact_reformulation_trans_results_j10.xlsx
+++ b/code/results/storm_j10_7200/compact_reformulation_trans_results_j10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="compact_reformulation_trans_results_0" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="552">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="554">
   <si>
     <t xml:space="preserve">instance</t>
   </si>
@@ -1666,6 +1666,9 @@
     <t xml:space="preserve">avg. solve time</t>
   </si>
   <si>
+    <t xml:space="preserve">(incl. 7200 for instances not solved to optimality)</t>
+  </si>
+  <si>
     <t xml:space="preserve">avg avg solve time</t>
   </si>
   <si>
@@ -1679,6 +1682,9 @@
   </si>
   <si>
     <t xml:space="preserve">avg. opt objval</t>
+  </si>
+  <si>
+    <t xml:space="preserve">avg. opt objval (solved for all Gamma)</t>
   </si>
 </sst>
 </file>
@@ -1779,10 +1785,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L537"/>
+  <dimension ref="A1:O537"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F520" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="M553" activeCellId="0" sqref="M553"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A496" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K537" activeCellId="0" sqref="K537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -12422,10 +12428,10 @@
         <f aca="false">100*COUNTIF(E2:E537,0)/ROWS(E2:E537)</f>
         <v>100</v>
       </c>
-      <c r="K531" s="0" t="s">
+      <c r="N531" s="0" t="s">
         <v>537</v>
       </c>
-      <c r="L531" s="0" t="n">
+      <c r="O531" s="0" t="n">
         <f aca="false">AVERAGE(compact_reformulation_trans_results_0:compact_reformulation_trans_results_7!I531:I531)</f>
         <v>100</v>
       </c>
@@ -12483,10 +12489,10 @@
         <f aca="false">AVERAGEIF(E2:E537,"&lt;&gt;*nan")</f>
         <v>0</v>
       </c>
-      <c r="K533" s="0" t="s">
+      <c r="N533" s="0" t="s">
         <v>542</v>
       </c>
-      <c r="L533" s="0" t="n">
+      <c r="O533" s="0" t="n">
         <f aca="false">AVERAGE(compact_reformulation_trans_results_0:compact_reformulation_trans_results_7!I533:I533)</f>
         <v>0</v>
       </c>
@@ -12544,17 +12550,20 @@
         <f aca="false">AVERAGE(F2:F537)</f>
         <v>1.83836567164179</v>
       </c>
-      <c r="K535" s="0" t="s">
+      <c r="J535" s="1" t="s">
         <v>547</v>
       </c>
-      <c r="L535" s="0" t="n">
+      <c r="N535" s="0" t="s">
+        <v>548</v>
+      </c>
+      <c r="O535" s="0" t="n">
         <f aca="false">AVERAGE(compact_reformulation_trans_results_0:compact_reformulation_trans_results_7!I535:I535)</f>
         <v>4.47083815298508</v>
       </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>0</v>
@@ -12572,7 +12581,7 @@
         <v>0.125</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I536" s="1" t="n">
         <f aca="false">AVERAGEIF(F2:F537,"&lt;7200")</f>
@@ -12581,7 +12590,7 @@
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>0</v>
@@ -12599,10 +12608,17 @@
         <v>0.059</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I537" s="1" t="n">
         <f aca="false">AVERAGEIF(E2:E537,"=0",C2:C537)</f>
+        <v>16.8432835820896</v>
+      </c>
+      <c r="K537" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="L537" s="0" t="n">
+        <f aca="false">AVERAGEIFS(C2:C537, compact_reformulation_trans_results_0!E2:E537, "=0",compact_reformulation_trans_results_3!E2:E537, "=0", compact_reformulation_trans_results_5!E2:E537, "=0", compact_reformulation_trans_results_7!E2:E537, "=0")</f>
         <v>16.8432835820896</v>
       </c>
     </row>
@@ -12622,10 +12638,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I537"/>
+  <dimension ref="A1:L537"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A519" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H531" activeCellId="0" sqref="H531"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A527" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L537" activeCellId="0" sqref="L537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23373,10 +23389,13 @@
         <f aca="false">AVERAGE(F2:F537)</f>
         <v>4.96213432835821</v>
       </c>
+      <c r="J535" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>3</v>
@@ -23394,7 +23413,7 @@
         <v>0.33</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I536" s="1" t="n">
         <f aca="false">AVERAGEIF(F2:F537,"&lt;7200")</f>
@@ -23403,7 +23422,7 @@
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>3</v>
@@ -23421,10 +23440,17 @@
         <v>0.439</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I537" s="1" t="n">
         <f aca="false">AVERAGEIF(E2:E537,"=0",C2:C537)</f>
+        <v>25.3414179104478</v>
+      </c>
+      <c r="K537" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="L537" s="0" t="n">
+        <f aca="false">AVERAGEIFS(C2:C537, compact_reformulation_trans_results_0!E2:E537, "=0",compact_reformulation_trans_results_3!E2:E537, "=0", compact_reformulation_trans_results_5!E2:E537, "=0", compact_reformulation_trans_results_7!E2:E537, "=0")</f>
         <v>25.3414179104478</v>
       </c>
     </row>
@@ -23444,10 +23470,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I537"/>
+  <dimension ref="A1:L537"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A507" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H531" activeCellId="0" sqref="H531"/>
+      <selection pane="topLeft" activeCell="K537" activeCellId="0" sqref="K537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -34195,10 +34221,13 @@
         <f aca="false">AVERAGE(F2:F537)</f>
         <v>4.61833768656717</v>
       </c>
+      <c r="J535" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>5</v>
@@ -34216,7 +34245,7 @@
         <v>0.681</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I536" s="1" t="n">
         <f aca="false">AVERAGEIF(F2:F537,"&lt;7200")</f>
@@ -34225,7 +34254,7 @@
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>5</v>
@@ -34243,10 +34272,17 @@
         <v>1.464</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I537" s="1" t="n">
         <f aca="false">AVERAGEIF(E2:E537,"=0",C2:C537)</f>
+        <v>26.3526119402985</v>
+      </c>
+      <c r="K537" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="L537" s="0" t="n">
+        <f aca="false">AVERAGEIFS(C2:C537, compact_reformulation_trans_results_0!E2:E537, "=0",compact_reformulation_trans_results_3!E2:E537, "=0", compact_reformulation_trans_results_5!E2:E537, "=0", compact_reformulation_trans_results_7!E2:E537, "=0")</f>
         <v>26.3526119402985</v>
       </c>
     </row>
@@ -34266,10 +34302,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:I537"/>
+  <dimension ref="A1:L537"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A521" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I531" activeCellId="0" sqref="I531"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A521" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="L537" activeCellId="0" sqref="L537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -45017,10 +45053,13 @@
         <f aca="false">AVERAGE(F2:F537)</f>
         <v>6.46451492537314</v>
       </c>
+      <c r="J535" s="1" t="s">
+        <v>547</v>
+      </c>
     </row>
     <row r="536" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A536" s="0" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="B536" s="0" t="n">
         <v>7</v>
@@ -45038,7 +45077,7 @@
         <v>0.546</v>
       </c>
       <c r="H536" s="1" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="I536" s="1" t="n">
         <f aca="false">AVERAGEIF(F2:F537,"&lt;7200")</f>
@@ -45047,7 +45086,7 @@
     </row>
     <row r="537" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A537" s="0" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="B537" s="0" t="n">
         <v>7</v>
@@ -45065,10 +45104,17 @@
         <v>0.408</v>
       </c>
       <c r="H537" s="1" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="I537" s="1" t="n">
         <f aca="false">AVERAGEIF(E2:E537,"=0",C2:C537)</f>
+        <v>26.4626865671642</v>
+      </c>
+      <c r="K537" s="0" t="s">
+        <v>553</v>
+      </c>
+      <c r="L537" s="0" t="n">
+        <f aca="false">AVERAGEIFS(C2:C537, compact_reformulation_trans_results_0!E2:E537, "=0",compact_reformulation_trans_results_3!E2:E537, "=0", compact_reformulation_trans_results_5!E2:E537, "=0", compact_reformulation_trans_results_7!E2:E537, "=0")</f>
         <v>26.4626865671642</v>
       </c>
     </row>

--- a/code/results/storm_j10_7200/compact_reformulation_trans_results_j10.xlsx
+++ b/code/results/storm_j10_7200/compact_reformulation_trans_results_j10.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="compact_reformulation_trans_results_0" sheetId="1" state="visible" r:id="rId2"/>
@@ -13,6 +13,9 @@
     <sheet name="compact_reformulation_trans_results_5" sheetId="3" state="visible" r:id="rId4"/>
     <sheet name="compact_reformulation_trans_results_7" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId6"/>
+  </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -23,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2207" uniqueCount="554">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2209" uniqueCount="556">
   <si>
     <t xml:space="preserve">instance</t>
   </si>
@@ -1685,6 +1688,12 @@
   </si>
   <si>
     <t xml:space="preserve">avg. opt objval (solved for all Gamma)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">overall avg opt solve time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(Gamma non-zero where both benders and compact formulation find optimal solution)</t>
   </si>
 </sst>
 </file>
@@ -1780,6 +1789,8083 @@
 </styleSheet>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="new_benders_results_0"/>
+      <sheetName val="new_benders_results_3"/>
+      <sheetName val="new_benders_results_5"/>
+      <sheetName val="new_benders_results_7"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1">
+        <row r="2">
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>0.136</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>0.027</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>0.107</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>0.071</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>0.139</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>0.071</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>0.062</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>0.062</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>0.041</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>0.189</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="E56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="E61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="E62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="E63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="E64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="E65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="E66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="E67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="E68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="E69">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="E70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="E71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="E72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="E73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="E74">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="E75">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="E76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="E77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="E78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="E79">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="E80">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="E81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="E82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="E83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="E84">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="E85">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="E86">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="E87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="E88">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="E89">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="E90">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="E91">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="E92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="E93">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="E94">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="E95">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="E96">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="E97">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="E98">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="E99">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="E100">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="E101">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="E102">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="E103">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="E104">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="E105">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="E106">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="E107">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="E108">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="E109">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="E110">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="E111">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="E112">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="E113">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="E114">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="E115">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="E116">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="E117">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="E118">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="E119">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="E120">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="E121">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="E122">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="E123">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="E124">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="E125">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="E126">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="E127">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="E128">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="E129">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="E130">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="E131">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="E132">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="E133">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="E134">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="E135">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="E136">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="E137">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="E138">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="E139">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="E140">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="E141">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="E142">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="E143">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="E144">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="E145">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="E146">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="E147">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="E148">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="E149">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="E150">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="E151">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="E152">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="E153">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="E154">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="E155">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="E156">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="E157">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="E158">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="E159">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="E160">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="E161">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="E162">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="E163">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="E164">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="E165">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="E166">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="E167">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="E168">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="E169">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="E170">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="E171">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="E172">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="E173">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="E174">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="E175">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="E176">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="E177">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="E178">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="E179">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="E180">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="E181">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="E182">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="E183">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="E184">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="E185">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="E186">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="E187">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="E188">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="E189">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="E190">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="E191">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="E192">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="E193">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="E194">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="E195">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="E196">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="E197">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="E198">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="E199">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="E200">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="E201">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="E202">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="E203">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="E204">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="E205">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="E206">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="E207">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="E208">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="E209">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="E210">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="E211">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="E212">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="E213">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="E214">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="E215">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="E216">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="E217">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="E218">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="E219">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="E220">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="E221">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="E222">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="E223">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="E224">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="E225">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="E226">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="E227">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="E228">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="E229">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="E230">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="E231">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="E232">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="E233">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="E234">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="E235">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="E236">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="E237">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="E238">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="E239">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="E240">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="E241">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="E242">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="E243">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="E244">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="E245">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="E246">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="E247">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="E248">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="E249">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="E250">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="E251">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="E252">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="E253">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="E254">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="E255">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="E256">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="E257">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="E258">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="E259">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="E260">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="E261">
+            <v>0.167</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="E262">
+            <v>0.111</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="E263">
+            <v>0.167</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="E264">
+            <v>0.185</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="E265">
+            <v>0.233</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="E266">
+            <v>0.238</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="E267">
+            <v>0.278</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="E268">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="E269">
+            <v>0.143</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="E270">
+            <v>0.167</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="E271">
+            <v>0.225</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="E272">
+            <v>0.239</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="E273">
+            <v>0.286</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="E274">
+            <v>0.212</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="E275">
+            <v>0.133</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="E276">
+            <v>0.222</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="E277">
+            <v>0.258</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="E278">
+            <v>0.256</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="E279">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="E280">
+            <v>0.214</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="E281">
+            <v>0.239</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="E282">
+            <v>0.156</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="E283">
+            <v>0.174</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="E284">
+            <v>0.147</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="E285">
+            <v>0.258</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="E286">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="E287">
+            <v>0.189</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="E288">
+            <v>0.212</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="E289">
+            <v>0.234</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="E290">
+            <v>0.182</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="E291">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="E292">
+            <v>0.043</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="E293">
+            <v>0.278</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="E294">
+            <v>0.289</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="E295">
+            <v>0.265</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="E296">
+            <v>0.154</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="E297">
+            <v>0.194</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="E298">
+            <v>0.231</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="E299">
+            <v>0.214</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="E300">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="E301">
+            <v>0.179</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="E302">
+            <v>0.226</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="E303">
+            <v>0.133</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="E304">
+            <v>0.16</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="E305">
+            <v>0.185</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="E306">
+            <v>0.156</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="E307">
+            <v>0.121</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="E308">
+            <v>0.121</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="E309">
+            <v>0.136</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="E310">
+            <v>0.174</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="E311">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="E312">
+            <v>0.237</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="E313">
+            <v>0.227</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="E314">
+            <v>0.238</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="E315">
+            <v>0.233</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="E316">
+            <v>0.095</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="E317">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="E318">
+            <v>0.263</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="E319">
+            <v>0.283</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="E320">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="E321">
+            <v>0.227</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="E322">
+            <v>0.286</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="E323">
+            <v>0.129</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="E324">
+            <v>0.154</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="E325">
+            <v>0.167</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="E326">
+            <v>0.22</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="E327">
+            <v>0.192</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="E328">
+            <v>0.261</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="E329">
+            <v>0.154</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="E330">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="E331">
+            <v>0.108</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="E332">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="E333">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="E334">
+            <v>0.059</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="E335">
+            <v>0.026</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="E336">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="E337">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="E338">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="E339">
+            <v>0.036</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="E340">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="E341">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="E342">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="E343">
+            <v>0.214</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="E344">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="E345">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="E346">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="E347">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="E348">
+            <v>0.231</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="E349">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="E350">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="E351">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="E352">
+            <v>0.114</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="E353">
+            <v>0.114</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="E354">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="E355">
+            <v>0.042</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="E356">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="E357">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="E358">
+            <v>0.032</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="E359">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="E360">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="E361">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="E362">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="E363">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="E364">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="E365">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="E366">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="E367">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="E368">
+            <v>0.094</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="E369">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="E370">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="E371">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="E372">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="E373">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="E374">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="E375">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="E376">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="E377">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="E378">
+            <v>0.167</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="E379">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="E380">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="E381">
+            <v>0.059</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="E382">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="E383">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="E384">
+            <v>0.16</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="E385">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="E386">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="E387">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="E388">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="E389">
+            <v>0.043</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="E390">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="E391">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="E392">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="E393">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="E394">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="E395">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="E396">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="E397">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="E398">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="E399">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="E400">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="E401">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="E402">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="E403">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="E404">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="E405">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="E406">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="E407">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="E408">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="E409">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="E410">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="E411">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="E412">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="E413">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="E414">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="E415">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="E416">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="E417">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="E418">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="E419">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="E420">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="E421">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="E422">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="E423">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="E424">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="E425">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="E426">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="E427">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="E428">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="E429">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="E430">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="E431">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="E432">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="E433">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="E434">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="E435">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="E436">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="E437">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="E438">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="E439">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="E440">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="E441">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="E442">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="E443">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="E444">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="E445">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="E446">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="E447">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="E448">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="E449">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="E450">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="E451">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="E452">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="E453">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="E454">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="E455">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="E456">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="E457">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="E458">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="E459">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="E460">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="E461">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="E462">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="E463">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="E464">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="E465">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="466">
+          <cell r="E466">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="467">
+          <cell r="E467">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="468">
+          <cell r="E468">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="469">
+          <cell r="E469">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="470">
+          <cell r="E470">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="471">
+          <cell r="E471">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="472">
+          <cell r="E472">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="473">
+          <cell r="E473">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="474">
+          <cell r="E474">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="475">
+          <cell r="E475">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="476">
+          <cell r="E476">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="477">
+          <cell r="E477">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="478">
+          <cell r="E478">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="E479">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="480">
+          <cell r="E480">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="481">
+          <cell r="E481">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="E482">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="E483">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="484">
+          <cell r="E484">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="485">
+          <cell r="E485">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="486">
+          <cell r="E486">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="487">
+          <cell r="E487">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="488">
+          <cell r="E488">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="489">
+          <cell r="E489">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="490">
+          <cell r="E490">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="491">
+          <cell r="E491">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="492">
+          <cell r="E492">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="493">
+          <cell r="E493">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="494">
+          <cell r="E494">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="495">
+          <cell r="E495">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="496">
+          <cell r="E496">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="E497">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="E498">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="E499">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="E500">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="E501">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="E502">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="E503">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="E504">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="E505">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="506">
+          <cell r="E506">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="E507">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="508">
+          <cell r="E508">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="509">
+          <cell r="E509">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="510">
+          <cell r="E510">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="E511">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="512">
+          <cell r="E512">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="E513">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="514">
+          <cell r="E514">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="E515">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="E516">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="E517">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="E518">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="E519">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="E520">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="E521">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="E522">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="523">
+          <cell r="E523">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="524">
+          <cell r="E524">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="525">
+          <cell r="E525">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="526">
+          <cell r="E526">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="527">
+          <cell r="E527">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="528">
+          <cell r="E528">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="529">
+          <cell r="E529">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="530">
+          <cell r="E530">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="530">
+          <cell r="K530">
+            <v>438</v>
+          </cell>
+        </row>
+        <row r="531">
+          <cell r="E531">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="532">
+          <cell r="E532">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="533">
+          <cell r="E533">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="534">
+          <cell r="E534">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="535">
+          <cell r="E535">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="536">
+          <cell r="E536">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="537">
+          <cell r="E537">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="2">
+        <row r="2">
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>0.136</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>0.138</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>0.152</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>0.135</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>0.023</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>0.184</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>0.115</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>0.045</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>0.091</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>0.036</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>0.145</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>0.031</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>0.246</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>0.062</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="E56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="E61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="E62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="E63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="E64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="E65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="E66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="E67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="E68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="E69">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="E70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="E71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="E72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="E73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="E74">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="E75">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="E76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="E77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="E78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="E79">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="E80">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="E81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="E82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="E83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="E84">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="E85">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="E86">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="E87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="E88">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="E89">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="E90">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="E91">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="E92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="E93">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="E94">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="E95">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="E96">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="E97">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="E98">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="E99">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="E100">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="E101">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="E102">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="E103">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="E104">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="E105">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="E106">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="E107">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="E108">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="E109">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="E110">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="E111">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="E112">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="E113">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="E114">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="E115">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="E116">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="E117">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="E118">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="E119">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="E120">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="E121">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="E122">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="E123">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="E124">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="E125">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="E126">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="E127">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="E128">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="E129">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="E130">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="E131">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="E132">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="E133">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="E134">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="E135">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="E136">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="E137">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="E138">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="E139">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="E140">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="E141">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="E142">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="E143">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="E144">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="E145">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="E146">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="E147">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="E148">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="E149">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="E150">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="E151">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="E152">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="E153">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="E154">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="E155">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="E156">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="E157">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="E158">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="E159">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="E160">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="E161">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="E162">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="E163">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="E164">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="E165">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="E166">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="E167">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="E168">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="E169">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="E170">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="E171">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="E172">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="E173">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="E174">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="E175">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="E176">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="E177">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="E178">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="E179">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="E180">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="E181">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="E182">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="E183">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="E184">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="E185">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="E186">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="E187">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="E188">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="E189">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="E190">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="E191">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="E192">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="E193">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="E194">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="E195">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="E196">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="E197">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="E198">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="E199">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="E200">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="E201">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="E202">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="E203">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="E204">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="E205">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="E206">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="E207">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="E208">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="E209">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="E210">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="E211">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="E212">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="E213">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="E214">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="E215">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="E216">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="E217">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="E218">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="E219">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="E220">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="E221">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="E222">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="E223">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="E224">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="E225">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="E226">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="E227">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="E228">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="E229">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="E230">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="E231">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="E232">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="E233">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="E234">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="E235">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="E236">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="E237">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="E238">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="E239">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="E240">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="E241">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="E242">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="E243">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="E244">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="E245">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="E246">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="E247">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="E248">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="E249">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="E250">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="E251">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="E252">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="E253">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="E254">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="E255">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="E256">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="E257">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="E258">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="E259">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="E260">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="E261">
+            <v>0.242</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="E262">
+            <v>0.167</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="E263">
+            <v>0.265</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="E264">
+            <v>0.267</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="E265">
+            <v>0.281</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="E266">
+            <v>0.289</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="E267">
+            <v>0.316</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="E268">
+            <v>0.259</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="E269">
+            <v>0.256</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="E270">
+            <v>0.167</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="E271">
+            <v>0.295</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="E272">
+            <v>0.314</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="E273">
+            <v>0.34</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="E274">
+            <v>0.257</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="E275">
+            <v>0.235</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="E276">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="E277">
+            <v>0.258</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="E278">
+            <v>0.326</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="E279">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="E280">
+            <v>0.267</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="E281">
+            <v>0.3</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="E282">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="E283">
+            <v>0.208</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="E284">
+            <v>0.194</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="E285">
+            <v>0.324</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="E286">
+            <v>0.294</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="E287">
+            <v>0.282</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="E288">
+            <v>0.286</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="E289">
+            <v>0.294</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="E290">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="E291">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="E292">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="E293">
+            <v>0.316</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="E294">
+            <v>0.319</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="E295">
+            <v>0.265</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="E296">
+            <v>0.185</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="E297">
+            <v>0.237</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="E298">
+            <v>0.31</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="E299">
+            <v>0.267</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="E300">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="E301">
+            <v>0.281</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="E302">
+            <v>0.226</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="E303">
+            <v>0.187</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="E304">
+            <v>0.192</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="E305">
+            <v>0.241</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="E306">
+            <v>0.206</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="E307">
+            <v>0.194</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="E308">
+            <v>0.237</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="E309">
+            <v>0.174</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="E310">
+            <v>0.24</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="E311">
+            <v>0.286</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="E312">
+            <v>0.293</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="E313">
+            <v>0.292</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="E314">
+            <v>0.304</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="E315">
+            <v>0.258</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="E316">
+            <v>0.095</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="E317">
+            <v>0.294</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="E318">
+            <v>0.282</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="E319">
+            <v>0.327</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="E320">
+            <v>0.259</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="E321">
+            <v>0.292</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="E322">
+            <v>0.306</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="E323">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="E324">
+            <v>0.185</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="E325">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="E326">
+            <v>0.273</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="E327">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="E328">
+            <v>0.261</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="E329">
+            <v>0.148</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="E330">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="E331">
+            <v>0.15</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="E332">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="E333">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="E334">
+            <v>0.059</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="E335">
+            <v>0.171</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="E336">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="E337">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="E338">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="E339">
+            <v>0.103</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="E340">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="E341">
+            <v>0.185</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="E342">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="E343">
+            <v>0.267</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="E344">
+            <v>0.04</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="E345">
+            <v>0.056</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="E346">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="E347">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="E348">
+            <v>0.231</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="E349">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="E350">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="E351">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="E352">
+            <v>0.205</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="E353">
+            <v>0.184</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="E354">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="E355">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="E356">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="E357">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="E358">
+            <v>0.088</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="E359">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="E360">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="E361">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="E362">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="E363">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="E364">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="E365">
+            <v>0.071</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="E366">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="E367">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="E368">
+            <v>0.171</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="E369">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="E370">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="E371">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="E372">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="E373">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="E374">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="E375">
+            <v>0.192</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="E376">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="E377">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="E378">
+            <v>0.194</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="E379">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="E380">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="E381">
+            <v>0.111</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="E382">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="E383">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="E384">
+            <v>0.16</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="E385">
+            <v>0.167</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="E386">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="E387">
+            <v>0.22</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="E388">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="E389">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="E390">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="E391">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="E392">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="E393">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="E394">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="E395">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="E396">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="E397">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="E398">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="E399">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="E400">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="E401">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="E402">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="E403">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="E404">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="E405">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="E406">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="E407">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="E408">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="E409">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="E410">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="E411">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="E412">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="E413">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="E414">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="E415">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="E416">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="E417">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="E418">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="E419">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="E420">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="E421">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="E422">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="E423">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="E424">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="E425">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="E426">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="E427">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="E428">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="E429">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="E430">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="E431">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="E432">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="E433">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="E434">
+            <v>0.053</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="E435">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="E436">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="E437">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="E438">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="E439">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="E440">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="E441">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="E442">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="E443">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="E444">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="E445">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="E446">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="E447">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="E448">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="E449">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="E450">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="E451">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="E452">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="E453">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="E454">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="E455">
+            <v>0.038</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="E456">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="E457">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="E458">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="E459">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="E460">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="E461">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="E462">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="E463">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="E464">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="E465">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="466">
+          <cell r="E466">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="467">
+          <cell r="E467">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="468">
+          <cell r="E468">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="469">
+          <cell r="E469">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="470">
+          <cell r="E470">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="471">
+          <cell r="E471">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="472">
+          <cell r="E472">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="473">
+          <cell r="E473">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="474">
+          <cell r="E474">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="475">
+          <cell r="E475">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="476">
+          <cell r="E476">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="477">
+          <cell r="E477">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="478">
+          <cell r="E478">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="E479">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="480">
+          <cell r="E480">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="481">
+          <cell r="E481">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="E482">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="E483">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="484">
+          <cell r="E484">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="485">
+          <cell r="E485">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="486">
+          <cell r="E486">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="487">
+          <cell r="E487">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="488">
+          <cell r="E488">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="489">
+          <cell r="E489">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="490">
+          <cell r="E490">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="491">
+          <cell r="E491">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="492">
+          <cell r="E492">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="493">
+          <cell r="E493">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="494">
+          <cell r="E494">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="495">
+          <cell r="E495">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="496">
+          <cell r="E496">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="E497">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="E498">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="E499">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="E500">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="E501">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="E502">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="E503">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="E504">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="E505">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="506">
+          <cell r="E506">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="E507">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="508">
+          <cell r="E508">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="509">
+          <cell r="E509">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="510">
+          <cell r="E510">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="E511">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="512">
+          <cell r="E512">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="E513">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="514">
+          <cell r="E514">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="E515">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="E516">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="E517">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="E518">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="E519">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="E520">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="E521">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="E522">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="523">
+          <cell r="E523">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="524">
+          <cell r="E524">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="525">
+          <cell r="E525">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="526">
+          <cell r="E526">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="527">
+          <cell r="E527">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="528">
+          <cell r="E528">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="529">
+          <cell r="E529">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="530">
+          <cell r="E530">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="530">
+          <cell r="K530">
+            <v>427</v>
+          </cell>
+        </row>
+        <row r="531">
+          <cell r="E531">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="532">
+          <cell r="E532">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="533">
+          <cell r="E533">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="534">
+          <cell r="E534">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="535">
+          <cell r="E535">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="536">
+          <cell r="E536">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="537">
+          <cell r="E537">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="3">
+        <row r="2">
+          <cell r="E2">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="E3">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="4">
+          <cell r="E4">
+            <v>0.136</v>
+          </cell>
+        </row>
+        <row r="5">
+          <cell r="E5">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="E6">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="7">
+          <cell r="E7">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="8">
+          <cell r="E8">
+            <v>0.1</v>
+          </cell>
+        </row>
+        <row r="9">
+          <cell r="E9">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="10">
+          <cell r="E10">
+            <v>0.172</v>
+          </cell>
+        </row>
+        <row r="11">
+          <cell r="E11">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="E12">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="E13">
+            <v>0.109</v>
+          </cell>
+        </row>
+        <row r="14">
+          <cell r="E14">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="15">
+          <cell r="E15">
+            <v>0.135</v>
+          </cell>
+        </row>
+        <row r="16">
+          <cell r="E16">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="17">
+          <cell r="E17">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="18">
+          <cell r="E18">
+            <v>0.07</v>
+          </cell>
+        </row>
+        <row r="19">
+          <cell r="E19">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="20">
+          <cell r="E20">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="21">
+          <cell r="E21">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="22">
+          <cell r="E22">
+            <v>0.204</v>
+          </cell>
+        </row>
+        <row r="23">
+          <cell r="E23">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="24">
+          <cell r="E24">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="25">
+          <cell r="E25">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="26">
+          <cell r="E26">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="27">
+          <cell r="E27">
+            <v>0.132</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="E28">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="29">
+          <cell r="E29">
+            <v>0.045</v>
+          </cell>
+        </row>
+        <row r="30">
+          <cell r="E30">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="31">
+          <cell r="E31">
+            <v>0.121</v>
+          </cell>
+        </row>
+        <row r="32">
+          <cell r="E32">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="33">
+          <cell r="E33">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="34">
+          <cell r="E34">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="35">
+          <cell r="E35">
+            <v>0.036</v>
+          </cell>
+        </row>
+        <row r="36">
+          <cell r="E36">
+            <v>0.193</v>
+          </cell>
+        </row>
+        <row r="37">
+          <cell r="E37">
+            <v>0.031</v>
+          </cell>
+        </row>
+        <row r="38">
+          <cell r="E38">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="39">
+          <cell r="E39">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="40">
+          <cell r="E40">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="41">
+          <cell r="E41">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="42">
+          <cell r="E42">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="43">
+          <cell r="E43">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="44">
+          <cell r="E44">
+            <v>0.271</v>
+          </cell>
+        </row>
+        <row r="45">
+          <cell r="E45">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="46">
+          <cell r="E46">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="47">
+          <cell r="E47">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="48">
+          <cell r="E48">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="49">
+          <cell r="E49">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="50">
+          <cell r="E50">
+            <v>0.062</v>
+          </cell>
+        </row>
+        <row r="51">
+          <cell r="E51">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="52">
+          <cell r="E52">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="53">
+          <cell r="E53">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="54">
+          <cell r="E54">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="55">
+          <cell r="E55">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="56">
+          <cell r="E56">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="57">
+          <cell r="E57">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="58">
+          <cell r="E58">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="59">
+          <cell r="E59">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="60">
+          <cell r="E60">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="61">
+          <cell r="E61">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="62">
+          <cell r="E62">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="63">
+          <cell r="E63">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="64">
+          <cell r="E64">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="65">
+          <cell r="E65">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="66">
+          <cell r="E66">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="67">
+          <cell r="E67">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="68">
+          <cell r="E68">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="69">
+          <cell r="E69">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="70">
+          <cell r="E70">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="71">
+          <cell r="E71">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="72">
+          <cell r="E72">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="73">
+          <cell r="E73">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="74">
+          <cell r="E74">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="75">
+          <cell r="E75">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="76">
+          <cell r="E76">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="77">
+          <cell r="E77">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="78">
+          <cell r="E78">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="79">
+          <cell r="E79">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="80">
+          <cell r="E80">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="E81">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="82">
+          <cell r="E82">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="83">
+          <cell r="E83">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="84">
+          <cell r="E84">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="85">
+          <cell r="E85">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="86">
+          <cell r="E86">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="87">
+          <cell r="E87">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="88">
+          <cell r="E88">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="89">
+          <cell r="E89">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="90">
+          <cell r="E90">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="91">
+          <cell r="E91">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="92">
+          <cell r="E92">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="93">
+          <cell r="E93">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="94">
+          <cell r="E94">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="95">
+          <cell r="E95">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="96">
+          <cell r="E96">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="97">
+          <cell r="E97">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="98">
+          <cell r="E98">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="99">
+          <cell r="E99">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="100">
+          <cell r="E100">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="101">
+          <cell r="E101">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="102">
+          <cell r="E102">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="103">
+          <cell r="E103">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="104">
+          <cell r="E104">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="105">
+          <cell r="E105">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="106">
+          <cell r="E106">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="107">
+          <cell r="E107">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="108">
+          <cell r="E108">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="109">
+          <cell r="E109">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="110">
+          <cell r="E110">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="111">
+          <cell r="E111">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="112">
+          <cell r="E112">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="113">
+          <cell r="E113">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="114">
+          <cell r="E114">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="115">
+          <cell r="E115">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="116">
+          <cell r="E116">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="117">
+          <cell r="E117">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="118">
+          <cell r="E118">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="119">
+          <cell r="E119">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="120">
+          <cell r="E120">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="121">
+          <cell r="E121">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="122">
+          <cell r="E122">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="123">
+          <cell r="E123">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="124">
+          <cell r="E124">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="125">
+          <cell r="E125">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="126">
+          <cell r="E126">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="127">
+          <cell r="E127">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="128">
+          <cell r="E128">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="129">
+          <cell r="E129">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="130">
+          <cell r="E130">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="131">
+          <cell r="E131">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="132">
+          <cell r="E132">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="133">
+          <cell r="E133">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="134">
+          <cell r="E134">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="135">
+          <cell r="E135">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="136">
+          <cell r="E136">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="137">
+          <cell r="E137">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="138">
+          <cell r="E138">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="139">
+          <cell r="E139">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="140">
+          <cell r="E140">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="141">
+          <cell r="E141">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="142">
+          <cell r="E142">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="143">
+          <cell r="E143">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="144">
+          <cell r="E144">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="145">
+          <cell r="E145">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="146">
+          <cell r="E146">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="147">
+          <cell r="E147">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="148">
+          <cell r="E148">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="149">
+          <cell r="E149">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="150">
+          <cell r="E150">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="151">
+          <cell r="E151">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="152">
+          <cell r="E152">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="153">
+          <cell r="E153">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="154">
+          <cell r="E154">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="155">
+          <cell r="E155">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="156">
+          <cell r="E156">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="157">
+          <cell r="E157">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="158">
+          <cell r="E158">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="159">
+          <cell r="E159">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="160">
+          <cell r="E160">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="161">
+          <cell r="E161">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="162">
+          <cell r="E162">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="163">
+          <cell r="E163">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="164">
+          <cell r="E164">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="165">
+          <cell r="E165">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="166">
+          <cell r="E166">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="167">
+          <cell r="E167">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="168">
+          <cell r="E168">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="169">
+          <cell r="E169">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="170">
+          <cell r="E170">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="171">
+          <cell r="E171">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="172">
+          <cell r="E172">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="173">
+          <cell r="E173">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="174">
+          <cell r="E174">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="175">
+          <cell r="E175">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="176">
+          <cell r="E176">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="177">
+          <cell r="E177">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="178">
+          <cell r="E178">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="179">
+          <cell r="E179">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="180">
+          <cell r="E180">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="181">
+          <cell r="E181">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="182">
+          <cell r="E182">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="183">
+          <cell r="E183">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="184">
+          <cell r="E184">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="185">
+          <cell r="E185">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="186">
+          <cell r="E186">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="187">
+          <cell r="E187">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="188">
+          <cell r="E188">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="189">
+          <cell r="E189">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="190">
+          <cell r="E190">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="191">
+          <cell r="E191">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="192">
+          <cell r="E192">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="193">
+          <cell r="E193">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="194">
+          <cell r="E194">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="195">
+          <cell r="E195">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="196">
+          <cell r="E196">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="197">
+          <cell r="E197">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="198">
+          <cell r="E198">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="199">
+          <cell r="E199">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="200">
+          <cell r="E200">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="201">
+          <cell r="E201">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="202">
+          <cell r="E202">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="203">
+          <cell r="E203">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="204">
+          <cell r="E204">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="205">
+          <cell r="E205">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="206">
+          <cell r="E206">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="207">
+          <cell r="E207">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="208">
+          <cell r="E208">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="209">
+          <cell r="E209">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="210">
+          <cell r="E210">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="211">
+          <cell r="E211">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="212">
+          <cell r="E212">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="213">
+          <cell r="E213">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="214">
+          <cell r="E214">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="215">
+          <cell r="E215">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="216">
+          <cell r="E216">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="217">
+          <cell r="E217">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="218">
+          <cell r="E218">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="219">
+          <cell r="E219">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="220">
+          <cell r="E220">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="221">
+          <cell r="E221">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="222">
+          <cell r="E222">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="223">
+          <cell r="E223">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="224">
+          <cell r="E224">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="225">
+          <cell r="E225">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="226">
+          <cell r="E226">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="227">
+          <cell r="E227">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="228">
+          <cell r="E228">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="229">
+          <cell r="E229">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="230">
+          <cell r="E230">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="231">
+          <cell r="E231">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="232">
+          <cell r="E232">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="233">
+          <cell r="E233">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="234">
+          <cell r="E234">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="235">
+          <cell r="E235">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="236">
+          <cell r="E236">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="237">
+          <cell r="E237">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="238">
+          <cell r="E238">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="239">
+          <cell r="E239">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="240">
+          <cell r="E240">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="241">
+          <cell r="E241">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="242">
+          <cell r="E242">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="243">
+          <cell r="E243">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="244">
+          <cell r="E244">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="245">
+          <cell r="E245">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="246">
+          <cell r="E246">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="247">
+          <cell r="E247">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="248">
+          <cell r="E248">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="249">
+          <cell r="E249">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="250">
+          <cell r="E250">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="251">
+          <cell r="E251">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="252">
+          <cell r="E252">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="253">
+          <cell r="E253">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="254">
+          <cell r="E254">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="255">
+          <cell r="E255">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="256">
+          <cell r="E256">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="257">
+          <cell r="E257">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="258">
+          <cell r="E258">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="259">
+          <cell r="E259">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="260">
+          <cell r="E260">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="261">
+          <cell r="E261">
+            <v>0.265</v>
+          </cell>
+        </row>
+        <row r="262">
+          <cell r="E262">
+            <v>0.167</v>
+          </cell>
+        </row>
+        <row r="263">
+          <cell r="E263">
+            <v>0.314</v>
+          </cell>
+        </row>
+        <row r="264">
+          <cell r="E264">
+            <v>0.29</v>
+          </cell>
+        </row>
+        <row r="265">
+          <cell r="E265">
+            <v>0.281</v>
+          </cell>
+        </row>
+        <row r="266">
+          <cell r="E266">
+            <v>0.304</v>
+          </cell>
+        </row>
+        <row r="267">
+          <cell r="E267">
+            <v>0.316</v>
+          </cell>
+        </row>
+        <row r="268">
+          <cell r="E268">
+            <v>0.259</v>
+          </cell>
+        </row>
+        <row r="269">
+          <cell r="E269">
+            <v>0.31</v>
+          </cell>
+        </row>
+        <row r="270">
+          <cell r="E270">
+            <v>0.167</v>
+          </cell>
+        </row>
+        <row r="271">
+          <cell r="E271">
+            <v>0.311</v>
+          </cell>
+        </row>
+        <row r="272">
+          <cell r="E272">
+            <v>0.327</v>
+          </cell>
+        </row>
+        <row r="273">
+          <cell r="E273">
+            <v>0.364</v>
+          </cell>
+        </row>
+        <row r="274">
+          <cell r="E274">
+            <v>0.257</v>
+          </cell>
+        </row>
+        <row r="275">
+          <cell r="E275">
+            <v>0.235</v>
+          </cell>
+        </row>
+        <row r="276">
+          <cell r="E276">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="277">
+          <cell r="E277">
+            <v>0.258</v>
+          </cell>
+        </row>
+        <row r="278">
+          <cell r="E278">
+            <v>0.341</v>
+          </cell>
+        </row>
+        <row r="279">
+          <cell r="E279">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="280">
+          <cell r="E280">
+            <v>0.29</v>
+          </cell>
+        </row>
+        <row r="281">
+          <cell r="E281">
+            <v>0.314</v>
+          </cell>
+        </row>
+        <row r="282">
+          <cell r="E282">
+            <v>0.289</v>
+          </cell>
+        </row>
+        <row r="283">
+          <cell r="E283">
+            <v>0.208</v>
+          </cell>
+        </row>
+        <row r="284">
+          <cell r="E284">
+            <v>0.194</v>
+          </cell>
+        </row>
+        <row r="285">
+          <cell r="E285">
+            <v>0.343</v>
+          </cell>
+        </row>
+        <row r="286">
+          <cell r="E286">
+            <v>0.294</v>
+          </cell>
+        </row>
+        <row r="287">
+          <cell r="E287">
+            <v>0.282</v>
+          </cell>
+        </row>
+        <row r="288">
+          <cell r="E288">
+            <v>0.306</v>
+          </cell>
+        </row>
+        <row r="289">
+          <cell r="E289">
+            <v>0.321</v>
+          </cell>
+        </row>
+        <row r="290">
+          <cell r="E290">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="291">
+          <cell r="E291">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="292">
+          <cell r="E292">
+            <v>0.185</v>
+          </cell>
+        </row>
+        <row r="293">
+          <cell r="E293">
+            <v>0.333</v>
+          </cell>
+        </row>
+        <row r="294">
+          <cell r="E294">
+            <v>0.347</v>
+          </cell>
+        </row>
+        <row r="295">
+          <cell r="E295">
+            <v>0.265</v>
+          </cell>
+        </row>
+        <row r="296">
+          <cell r="E296">
+            <v>0.185</v>
+          </cell>
+        </row>
+        <row r="297">
+          <cell r="E297">
+            <v>0.31</v>
+          </cell>
+        </row>
+        <row r="298">
+          <cell r="E298">
+            <v>0.355</v>
+          </cell>
+        </row>
+        <row r="299">
+          <cell r="E299">
+            <v>0.333</v>
+          </cell>
+        </row>
+        <row r="300">
+          <cell r="E300">
+            <v>0.302</v>
+          </cell>
+        </row>
+        <row r="301">
+          <cell r="E301">
+            <v>0.303</v>
+          </cell>
+        </row>
+        <row r="302">
+          <cell r="E302">
+            <v>0.226</v>
+          </cell>
+        </row>
+        <row r="303">
+          <cell r="E303">
+            <v>0.212</v>
+          </cell>
+        </row>
+        <row r="304">
+          <cell r="E304">
+            <v>0.192</v>
+          </cell>
+        </row>
+        <row r="305">
+          <cell r="E305">
+            <v>0.241</v>
+          </cell>
+        </row>
+        <row r="306">
+          <cell r="E306">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="307">
+          <cell r="E307">
+            <v>0.237</v>
+          </cell>
+        </row>
+        <row r="308">
+          <cell r="E308">
+            <v>0.31</v>
+          </cell>
+        </row>
+        <row r="309">
+          <cell r="E309">
+            <v>0.174</v>
+          </cell>
+        </row>
+        <row r="310">
+          <cell r="E310">
+            <v>0.269</v>
+          </cell>
+        </row>
+        <row r="311">
+          <cell r="E311">
+            <v>0.286</v>
+          </cell>
+        </row>
+        <row r="312">
+          <cell r="E312">
+            <v>0.293</v>
+          </cell>
+        </row>
+        <row r="313">
+          <cell r="E313">
+            <v>0.292</v>
+          </cell>
+        </row>
+        <row r="314">
+          <cell r="E314">
+            <v>0.319</v>
+          </cell>
+        </row>
+        <row r="315">
+          <cell r="E315">
+            <v>0.258</v>
+          </cell>
+        </row>
+        <row r="316">
+          <cell r="E316">
+            <v>0.095</v>
+          </cell>
+        </row>
+        <row r="317">
+          <cell r="E317">
+            <v>0.294</v>
+          </cell>
+        </row>
+        <row r="318">
+          <cell r="E318">
+            <v>0.282</v>
+          </cell>
+        </row>
+        <row r="319">
+          <cell r="E319">
+            <v>0.327</v>
+          </cell>
+        </row>
+        <row r="320">
+          <cell r="E320">
+            <v>0.259</v>
+          </cell>
+        </row>
+        <row r="321">
+          <cell r="E321">
+            <v>0.32</v>
+          </cell>
+        </row>
+        <row r="322">
+          <cell r="E322">
+            <v>0.342</v>
+          </cell>
+        </row>
+        <row r="323">
+          <cell r="E323">
+            <v>0.156</v>
+          </cell>
+        </row>
+        <row r="324">
+          <cell r="E324">
+            <v>0.185</v>
+          </cell>
+        </row>
+        <row r="325">
+          <cell r="E325">
+            <v>0.326</v>
+          </cell>
+        </row>
+        <row r="326">
+          <cell r="E326">
+            <v>0.289</v>
+          </cell>
+        </row>
+        <row r="327">
+          <cell r="E327">
+            <v>0.276</v>
+          </cell>
+        </row>
+        <row r="328">
+          <cell r="E328">
+            <v>0.261</v>
+          </cell>
+        </row>
+        <row r="329">
+          <cell r="E329">
+            <v>0.185</v>
+          </cell>
+        </row>
+        <row r="330">
+          <cell r="E330">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="331">
+          <cell r="E331">
+            <v>0.128</v>
+          </cell>
+        </row>
+        <row r="332">
+          <cell r="E332">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="333">
+          <cell r="E333">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="334">
+          <cell r="E334">
+            <v>0.059</v>
+          </cell>
+        </row>
+        <row r="335">
+          <cell r="E335">
+            <v>0.171</v>
+          </cell>
+        </row>
+        <row r="336">
+          <cell r="E336">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="337">
+          <cell r="E337">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="338">
+          <cell r="E338">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="339">
+          <cell r="E339">
+            <v>0.103</v>
+          </cell>
+        </row>
+        <row r="340">
+          <cell r="E340">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="341">
+          <cell r="E341">
+            <v>0.185</v>
+          </cell>
+        </row>
+        <row r="342">
+          <cell r="E342">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="343">
+          <cell r="E343">
+            <v>0.267</v>
+          </cell>
+        </row>
+        <row r="344">
+          <cell r="E344">
+            <v>0.08</v>
+          </cell>
+        </row>
+        <row r="345">
+          <cell r="E345">
+            <v>0.056</v>
+          </cell>
+        </row>
+        <row r="346">
+          <cell r="E346">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="347">
+          <cell r="E347">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="348">
+          <cell r="E348">
+            <v>0.231</v>
+          </cell>
+        </row>
+        <row r="349">
+          <cell r="E349">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="350">
+          <cell r="E350">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="351">
+          <cell r="E351">
+            <v>0.125</v>
+          </cell>
+        </row>
+        <row r="352">
+          <cell r="E352">
+            <v>0.231</v>
+          </cell>
+        </row>
+        <row r="353">
+          <cell r="E353">
+            <v>0.184</v>
+          </cell>
+        </row>
+        <row r="354">
+          <cell r="E354">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="355">
+          <cell r="E355">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="356">
+          <cell r="E356">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="357">
+          <cell r="E357">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="358">
+          <cell r="E358">
+            <v>0.118</v>
+          </cell>
+        </row>
+        <row r="359">
+          <cell r="E359">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="360">
+          <cell r="E360">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="361">
+          <cell r="E361">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="362">
+          <cell r="E362">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="363">
+          <cell r="E363">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="364">
+          <cell r="E364">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="365">
+          <cell r="E365">
+            <v>0.111</v>
+          </cell>
+        </row>
+        <row r="366">
+          <cell r="E366">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="367">
+          <cell r="E367">
+            <v>0.25</v>
+          </cell>
+        </row>
+        <row r="368">
+          <cell r="E368">
+            <v>0.171</v>
+          </cell>
+        </row>
+        <row r="369">
+          <cell r="E369">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="370">
+          <cell r="E370">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="371">
+          <cell r="E371">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="372">
+          <cell r="E372">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="373">
+          <cell r="E373">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="374">
+          <cell r="E374">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="375">
+          <cell r="E375">
+            <v>0.192</v>
+          </cell>
+        </row>
+        <row r="376">
+          <cell r="E376">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="377">
+          <cell r="E377">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="378">
+          <cell r="E378">
+            <v>0.194</v>
+          </cell>
+        </row>
+        <row r="379">
+          <cell r="E379">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="380">
+          <cell r="E380">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="381">
+          <cell r="E381">
+            <v>0.111</v>
+          </cell>
+        </row>
+        <row r="382">
+          <cell r="E382">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="383">
+          <cell r="E383">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="384">
+          <cell r="E384">
+            <v>0.16</v>
+          </cell>
+        </row>
+        <row r="385">
+          <cell r="E385">
+            <v>0.2</v>
+          </cell>
+        </row>
+        <row r="386">
+          <cell r="E386">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="387">
+          <cell r="E387">
+            <v>0.273</v>
+          </cell>
+        </row>
+        <row r="388">
+          <cell r="E388">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="389">
+          <cell r="E389">
+            <v>0.12</v>
+          </cell>
+        </row>
+        <row r="390">
+          <cell r="E390">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="391">
+          <cell r="E391">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="392">
+          <cell r="E392">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="393">
+          <cell r="E393">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="394">
+          <cell r="E394">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="395">
+          <cell r="E395">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="396">
+          <cell r="E396">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="397">
+          <cell r="E397">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="398">
+          <cell r="E398">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="399">
+          <cell r="E399">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="400">
+          <cell r="E400">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="401">
+          <cell r="E401">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="402">
+          <cell r="E402">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="403">
+          <cell r="E403">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="404">
+          <cell r="E404">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="405">
+          <cell r="E405">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="406">
+          <cell r="E406">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="407">
+          <cell r="E407">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="408">
+          <cell r="E408">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="409">
+          <cell r="E409">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="410">
+          <cell r="E410">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="411">
+          <cell r="E411">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="412">
+          <cell r="E412">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="413">
+          <cell r="E413">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="414">
+          <cell r="E414">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="415">
+          <cell r="E415">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="416">
+          <cell r="E416">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="417">
+          <cell r="E417">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="418">
+          <cell r="E418">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="419">
+          <cell r="E419">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="420">
+          <cell r="E420">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="421">
+          <cell r="E421">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="422">
+          <cell r="E422">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="423">
+          <cell r="E423">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="424">
+          <cell r="E424">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="425">
+          <cell r="E425">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="426">
+          <cell r="E426">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="427">
+          <cell r="E427">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="428">
+          <cell r="E428">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="429">
+          <cell r="E429">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="430">
+          <cell r="E430">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="431">
+          <cell r="E431">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="432">
+          <cell r="E432">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="433">
+          <cell r="E433">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="434">
+          <cell r="E434">
+            <v>0.053</v>
+          </cell>
+        </row>
+        <row r="435">
+          <cell r="E435">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="436">
+          <cell r="E436">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="437">
+          <cell r="E437">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="438">
+          <cell r="E438">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="439">
+          <cell r="E439">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="440">
+          <cell r="E440">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="441">
+          <cell r="E441">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="442">
+          <cell r="E442">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="443">
+          <cell r="E443">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="444">
+          <cell r="E444">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="445">
+          <cell r="E445">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="446">
+          <cell r="E446">
+            <v>0.037</v>
+          </cell>
+        </row>
+        <row r="447">
+          <cell r="E447">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="448">
+          <cell r="E448">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="449">
+          <cell r="E449">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="450">
+          <cell r="E450">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="451">
+          <cell r="E451">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="452">
+          <cell r="E452">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="453">
+          <cell r="E453">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="454">
+          <cell r="E454">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="455">
+          <cell r="E455">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="456">
+          <cell r="E456">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="457">
+          <cell r="E457">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="458">
+          <cell r="E458">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="459">
+          <cell r="E459">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="460">
+          <cell r="E460">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="461">
+          <cell r="E461">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="462">
+          <cell r="E462">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="463">
+          <cell r="E463">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="464">
+          <cell r="E464">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="465">
+          <cell r="E465">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="466">
+          <cell r="E466">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="467">
+          <cell r="E467">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="468">
+          <cell r="E468">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="469">
+          <cell r="E469">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="470">
+          <cell r="E470">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="471">
+          <cell r="E471">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="472">
+          <cell r="E472">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="473">
+          <cell r="E473">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="474">
+          <cell r="E474">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="475">
+          <cell r="E475">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="476">
+          <cell r="E476">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="477">
+          <cell r="E477">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="478">
+          <cell r="E478">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="479">
+          <cell r="E479">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="480">
+          <cell r="E480">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="481">
+          <cell r="E481">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="482">
+          <cell r="E482">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="483">
+          <cell r="E483">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="484">
+          <cell r="E484">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="485">
+          <cell r="E485">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="486">
+          <cell r="E486">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="487">
+          <cell r="E487">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="488">
+          <cell r="E488">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="489">
+          <cell r="E489">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="490">
+          <cell r="E490">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="491">
+          <cell r="E491">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="492">
+          <cell r="E492">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="493">
+          <cell r="E493">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="494">
+          <cell r="E494">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="495">
+          <cell r="E495">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="496">
+          <cell r="E496">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="497">
+          <cell r="E497">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="498">
+          <cell r="E498">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="499">
+          <cell r="E499">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="500">
+          <cell r="E500">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="501">
+          <cell r="E501">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="502">
+          <cell r="E502">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="503">
+          <cell r="E503">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="504">
+          <cell r="E504">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="505">
+          <cell r="E505">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="506">
+          <cell r="E506">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="507">
+          <cell r="E507">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="508">
+          <cell r="E508">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="509">
+          <cell r="E509">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="510">
+          <cell r="E510">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="511">
+          <cell r="E511">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="512">
+          <cell r="E512">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="513">
+          <cell r="E513">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="514">
+          <cell r="E514">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="515">
+          <cell r="E515">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="516">
+          <cell r="E516">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="517">
+          <cell r="E517">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="518">
+          <cell r="E518">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="519">
+          <cell r="E519">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="520">
+          <cell r="E520">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="521">
+          <cell r="E521">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="522">
+          <cell r="E522">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="523">
+          <cell r="E523">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="524">
+          <cell r="E524">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="525">
+          <cell r="E525">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="526">
+          <cell r="E526">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="527">
+          <cell r="E527">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="528">
+          <cell r="E528">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="529">
+          <cell r="E529">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="530">
+          <cell r="E530">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="530">
+          <cell r="K530">
+            <v>426</v>
+          </cell>
+        </row>
+        <row r="531">
+          <cell r="E531">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="532">
+          <cell r="E532">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="533">
+          <cell r="E533">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="534">
+          <cell r="E534">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="535">
+          <cell r="E535">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="536">
+          <cell r="E536">
+            <v>0</v>
+          </cell>
+        </row>
+        <row r="537">
+          <cell r="E537">
+            <v>0</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -12638,10 +20724,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:L537"/>
+  <dimension ref="A1:L544"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A527" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L537" activeCellId="0" sqref="L537"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A512" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="N536" activeCellId="0" sqref="N536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23452,6 +31538,18 @@
       <c r="L537" s="0" t="n">
         <f aca="false">AVERAGEIFS(C2:C537, compact_reformulation_trans_results_0!E2:E537, "=0",compact_reformulation_trans_results_3!E2:E537, "=0", compact_reformulation_trans_results_5!E2:E537, "=0", compact_reformulation_trans_results_7!E2:E537, "=0")</f>
         <v>25.3414179104478</v>
+      </c>
+    </row>
+    <row r="544" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H544" s="0" t="s">
+        <v>554</v>
+      </c>
+      <c r="I544" s="0" t="n">
+        <f aca="false">(SUMIF([1]new_benders_results_3!E2:E537,"=0",F2:F537)+SUMIF([1]new_benders_results_5!E2:E537,"=0",compact_reformulation_trans_results_5!F2:F537)+SUMIF([1]new_benders_results_7!E2:E537,"=0",compact_reformulation_trans_results_7!F2:F537))/([1]new_benders_results_3!K530+[1]new_benders_results_5!K530+[1]new_benders_results_7!K530)</f>
+        <v>1.43139891556933</v>
+      </c>
+      <c r="J544" s="0" t="s">
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -23472,7 +31570,7 @@
   </sheetPr>
   <dimension ref="A1:L537"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A507" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="K537" activeCellId="0" sqref="K537"/>
     </sheetView>
   </sheetViews>
@@ -34304,7 +42402,7 @@
   </sheetPr>
   <dimension ref="A1:L537"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A521" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L537" activeCellId="0" sqref="L537"/>
     </sheetView>
   </sheetViews>
